--- a/videos_recentes.xlsx
+++ b/videos_recentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,295 +463,322 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>@Ragnarokonlineoficial</t>
+          <t>Luca Baruch</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>How to Reset Your Stats with the Hypnotist in Ragnarok Online LATAM!</t>
+          <t>Guia DEFINITIVO de SHURA | Rota de UP, Builds, Design, e + | Ragnarok Online LATAM ROLATAM | Baruch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Fv7cjhBCRRA/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/e4sV93zDBcI/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-05-25T23:00:13Z</t>
+          <t>2025-05-25T16:25:08Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Fv7cjhBCRRA</t>
+          <t>https://www.youtube.com/watch?v=e4sV93zDBcI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>@Lyelz</t>
+          <t>@EstudoArcano</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Entendendo O MECÂNICO - Guia Geral da Classe - Comece bem no Ragnarok!</t>
+          <t>Up dos Templários e Paladinos no LATAM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/jgJ6QVjA7bo/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/gv45z4-P_B4/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-05-26T00:40:57Z</t>
+          <t>2025-05-27T09:20:55Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=jgJ6QVjA7bo</t>
+          <t>https://www.youtube.com/watch?v=gv45z4-P_B4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>@JeffodaGaita</t>
+          <t>@Lyelz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tier list das classes pra UPAR facil no ragnarok</t>
+          <t>Entendendo O BIOQUÍMICO - Guia Geral da Classe - Comece bem no Ragnarok!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/vMrBR1eSrNI/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/5CmT3LueuOA/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-05-26T15:26:29Z</t>
+          <t>2025-05-27T10:00:17Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vMrBR1eSrNI</t>
+          <t>https://www.youtube.com/watch?v=5CmT3LueuOA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>@JogaJuntoRagnarok</t>
+          <t>@JeffodaGaita</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vamos de RAGNAROK X e DBD enquanto esperamos o servidor LATAM</t>
+          <t>Tier list das classes pra UPAR facil no ragnarok</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/9lOObgcsndM/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/vMrBR1eSrNI/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-05-26T03:49:20Z</t>
+          <t>2025-05-26T15:26:29Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lOObgcsndM</t>
+          <t>https://www.youtube.com/watch?v=vMrBR1eSrNI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>@tigrinMMO</t>
+          <t>@JogaJuntoRagnarok</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A MELHOR BUILD de SICÁRIO! Ragnarok LATAM (GUIA DE SICÁRIO)</t>
+          <t>Vamos de RAGNAROK X e DBD enquanto esperamos o servidor LATAM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/YK9nTGNhLeM/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/IWDIDEzoC9c/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-05-26T00:54:48Z</t>
+          <t>2025-05-27T08:06:07Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YK9nTGNhLeM</t>
+          <t>https://www.youtube.com/watch?v=IWDIDEzoC9c</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>@italoPoa</t>
+          <t>@tigrinMMO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ragnarok Latam e Gachaa e Como Trocar Seus Cupoms da Kachua</t>
+          <t>MELHOR ROTA de UP ALTERNATIVA pro RAGNAROK LATAM!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/WHn6obSlZBQ/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/MPMe4a0V3tY/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-05-25T12:00:50Z</t>
+          <t>2025-05-27T09:00:35Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WHn6obSlZBQ</t>
+          <t>https://www.youtube.com/watch?v=MPMe4a0V3tY</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>@CabanaDoSentinela</t>
+          <t>@italoPoa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Guia Completo de Sentinelas - do Zero ao 175 - Ragnarok Online LATAM</t>
+          <t>Ragnarok Latam e Gachaa e Como Trocar Seus Cupoms da Kachua</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/7J53cvC4LLQ/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/WHn6obSlZBQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-05-25T17:59:12Z</t>
+          <t>2025-05-25T12:00:50Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7J53cvC4LLQ</t>
+          <t>https://www.youtube.com/watch?v=WHn6obSlZBQ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>@IceZone</t>
+          <t>Cabana do Sentinela</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Qual a melhor espada para RK de Vento Cortante  Ragnarok Online Latam #ragnarokonline #ragnaroklatam</t>
+          <t>Guia Completo de Sentinelas - do Zero ao 175 - Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Tp4T6VOByYw/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/7J53cvC4LLQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-05-26T15:15:03Z</t>
+          <t>2025-05-25T17:59:12Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Tp4T6VOByYw</t>
+          <t>https://www.youtube.com/watch?v=7J53cvC4LLQ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>@Millifiore</t>
+          <t>@IceZone</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Guia de up e dicas para começar bem no lançamento do Ragnarok Latam</t>
+          <t>Kagerou Togatana  - Teste de danos l Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/wW18RX44qdU/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/A00bJON829A/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-05-26T15:55:45Z</t>
+          <t>2025-05-26T23:15:28Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=wW18RX44qdU</t>
+          <t>https://www.youtube.com/watch?v=A00bJON829A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>@seduction5877</t>
+          <t>@Millifiore</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[GUIA] Solos, Duetos e Corais</t>
+          <t>Guia de up e dicas para começar bem no lançamento do Ragnarok Latam</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/AHWXLghzqFo/sddefault.jpg</t>
+          <t>https://i.ytimg.com/vi/wW18RX44qdU/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-05-25T13:58:56Z</t>
+          <t>2025-05-26T15:55:45Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=AHWXLghzqFo</t>
+          <t>https://www.youtube.com/watch?v=wW18RX44qdU</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>@seduction5877</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[GUIA] Solos, Duetos e Corais</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/AHWXLghzqFo/sddefault.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-05-25T13:58:56Z</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=AHWXLghzqFo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>@RagnaPlay.Oficial</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Ragnarok Latam - A Melhor rota de UP do 99 ao 175 - Evento monstro em dobro (parte 2)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/U8gmMoZDmu0/maxresdefault.jpg</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>2025-05-25T19:14:51Z</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=U8gmMoZDmu0</t>
         </is>

--- a/videos_recentes.xlsx
+++ b/videos_recentes.xlsx
@@ -544,243 +544,243 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>@JeffodaGaita</t>
+          <t>@JogaJuntoRagnarok</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tier list das classes pra UPAR facil no ragnarok</t>
+          <t>Vamos de RAGNAROK X e DBD enquanto esperamos o servidor LATAM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/vMrBR1eSrNI/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/IWDIDEzoC9c/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-05-26T15:26:29Z</t>
+          <t>2025-05-27T08:06:07Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vMrBR1eSrNI</t>
+          <t>https://www.youtube.com/watch?v=IWDIDEzoC9c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>@JogaJuntoRagnarok</t>
+          <t>@tigrinMMO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vamos de RAGNAROK X e DBD enquanto esperamos o servidor LATAM</t>
+          <t>MELHOR ROTA de UP ALTERNATIVA pro RAGNAROK LATAM!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/IWDIDEzoC9c/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/MPMe4a0V3tY/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-05-27T08:06:07Z</t>
+          <t>2025-05-27T09:00:35Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=IWDIDEzoC9c</t>
+          <t>https://www.youtube.com/watch?v=MPMe4a0V3tY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>@tigrinMMO</t>
+          <t>@italoPoa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MELHOR ROTA de UP ALTERNATIVA pro RAGNAROK LATAM!</t>
+          <t>Ragnarok Latam e Gachaa e Como Trocar Seus Cupoms da Kachua</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/MPMe4a0V3tY/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/WHn6obSlZBQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-05-27T09:00:35Z</t>
+          <t>2025-05-25T12:00:50Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MPMe4a0V3tY</t>
+          <t>https://www.youtube.com/watch?v=WHn6obSlZBQ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>@italoPoa</t>
+          <t>Cabana do Sentinela</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ragnarok Latam e Gachaa e Como Trocar Seus Cupoms da Kachua</t>
+          <t>Guia Completo de Sentinelas - do Zero ao 175 - Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/WHn6obSlZBQ/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/7J53cvC4LLQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-05-25T12:00:50Z</t>
+          <t>2025-05-25T17:59:12Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WHn6obSlZBQ</t>
+          <t>https://www.youtube.com/watch?v=7J53cvC4LLQ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cabana do Sentinela</t>
+          <t>@IceZone</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Guia Completo de Sentinelas - do Zero ao 175 - Ragnarok Online LATAM</t>
+          <t>Kagerou Togatana  - Teste de danos l Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/7J53cvC4LLQ/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/A00bJON829A/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-05-25T17:59:12Z</t>
+          <t>2025-05-26T23:15:28Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7J53cvC4LLQ</t>
+          <t>https://www.youtube.com/watch?v=A00bJON829A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>@IceZone</t>
+          <t>@Millifiore</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kagerou Togatana  - Teste de danos l Ragnarok Online LATAM</t>
+          <t>Guia de up e dicas para começar bem no lançamento do Ragnarok Latam</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/A00bJON829A/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/wW18RX44qdU/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-05-26T23:15:28Z</t>
+          <t>2025-05-26T15:55:45Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=A00bJON829A</t>
+          <t>https://www.youtube.com/watch?v=wW18RX44qdU</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>@Millifiore</t>
+          <t>@seduction5877</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Guia de up e dicas para começar bem no lançamento do Ragnarok Latam</t>
+          <t>[GUIA] Solos, Duetos e Corais</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/wW18RX44qdU/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/AHWXLghzqFo/sddefault.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-05-26T15:55:45Z</t>
+          <t>2025-05-25T13:58:56Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=wW18RX44qdU</t>
+          <t>https://www.youtube.com/watch?v=AHWXLghzqFo</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>@seduction5877</t>
+          <t>@RagnaPlay.Oficial</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[GUIA] Solos, Duetos e Corais</t>
+          <t>Ragnarok Latam - A Melhor rota de UP do 99 ao 175 - Evento monstro em dobro (parte 2)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/AHWXLghzqFo/sddefault.jpg</t>
+          <t>https://i.ytimg.com/vi/U8gmMoZDmu0/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-05-25T13:58:56Z</t>
+          <t>2025-05-25T19:14:51Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=AHWXLghzqFo</t>
+          <t>https://www.youtube.com/watch?v=U8gmMoZDmu0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>@RagnaPlay.Oficial</t>
+          <t>Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ragnarok Latam - A Melhor rota de UP do 99 ao 175 - Evento monstro em dobro (parte 2)</t>
+          <t>Atenção: o recado mais importante do Ragnarok Online LATAM!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/U8gmMoZDmu0/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/Z_s-TmJr9eQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-05-25T19:14:51Z</t>
+          <t>2025-05-26T22:28:06Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=U8gmMoZDmu0</t>
+          <t>https://www.youtube.com/watch?v=Z_s-TmJr9eQ</t>
         </is>
       </c>
     </row>

--- a/videos_recentes.xlsx
+++ b/videos_recentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guia DEFINITIVO de SHURA | Rota de UP, Builds, Design, e + | Ragnarok Online LATAM ROLATAM | Baruch</t>
+          <t>[latam-ro] ⚔️ LANÇAMENTO do Servidor ⚔️ ~ Criando o Monge (Parceiro Oficial Ragnarok LATAM)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/e4sV93zDBcI/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/mGRc8trka6Q/maxresdefault_live.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-05-25T16:25:08Z</t>
+          <t>2025-05-28T12:37:26Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=e4sV93zDBcI</t>
+          <t>https://www.youtube.com/watch?v=mGRc8trka6Q</t>
         </is>
       </c>
     </row>
@@ -522,265 +522,292 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Entendendo O BIOQUÍMICO - Guia Geral da Classe - Comece bem no Ragnarok!</t>
+          <t>Por que você joga Ragnarok Online?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/5CmT3LueuOA/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/nUwFHsgqVuc/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-05-27T10:00:17Z</t>
+          <t>2025-05-27T16:42:03Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5CmT3LueuOA</t>
+          <t>https://www.youtube.com/watch?v=nUwFHsgqVuc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>@JogaJuntoRagnarok</t>
+          <t>@JeffodaGaita</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vamos de RAGNAROK X e DBD enquanto esperamos o servidor LATAM</t>
+          <t>Melhor build pra solar o jogo de RANGER</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/IWDIDEzoC9c/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/mGUAJXV8lJ4/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-05-27T08:06:07Z</t>
+          <t>2025-05-27T14:57:35Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=IWDIDEzoC9c</t>
+          <t>https://www.youtube.com/watch?v=mGUAJXV8lJ4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>@tigrinMMO</t>
+          <t>@KDashRagnarok</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MELHOR ROTA de UP ALTERNATIVA pro RAGNAROK LATAM!</t>
+          <t>Como jogar de GX: HABILIDADES Ragnarok LATAM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/MPMe4a0V3tY/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/ht0U6RZAJuA/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-05-27T09:00:35Z</t>
+          <t>2025-05-28T13:13:00Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MPMe4a0V3tY</t>
+          <t>https://www.youtube.com/watch?v=ht0U6RZAJuA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>@italoPoa</t>
+          <t>@JogaJuntoRagnarok</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ragnarok Latam e Gachaa e Como Trocar Seus Cupoms da Kachua</t>
+          <t>É HOJE! LANÇAMENTO DO RAGNAROK LATAM! VAMOS JUNTOS !LIVEPIX</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/WHn6obSlZBQ/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/o2aEw-PxlUQ/maxresdefault_live.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-05-25T12:00:50Z</t>
+          <t>2025-05-28T13:12:06Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WHn6obSlZBQ</t>
+          <t>https://www.youtube.com/watch?v=o2aEw-PxlUQ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cabana do Sentinela</t>
+          <t>@KSensei</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Guia Completo de Sentinelas - do Zero ao 175 - Ragnarok Online LATAM</t>
+          <t>Ragnarok Online Latam: O Que Fazer no Primeiro Dia?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/7J53cvC4LLQ/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/c6RxcxNPEes/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-05-25T17:59:12Z</t>
+          <t>2025-05-27T19:09:47Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7J53cvC4LLQ</t>
+          <t>https://www.youtube.com/watch?v=c6RxcxNPEes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>@IceZone</t>
+          <t>@tigrinMMO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kagerou Togatana  - Teste de danos l Ragnarok Online LATAM</t>
+          <t>O melhor ESPADACHIM do bairro! RAGNAROK Latam PRIMEIRO DIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/A00bJON829A/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/TIfrlXkJyzg/maxresdefault_live.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-05-26T23:15:28Z</t>
+          <t>2025-05-28T12:42:25Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=A00bJON829A</t>
+          <t>https://www.youtube.com/watch?v=TIfrlXkJyzg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>@Millifiore</t>
+          <t>@CerosPhantom</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Guia de up e dicas para começar bem no lançamento do Ragnarok Latam</t>
+          <t>[PARCEIRO OFICIAL] Do Zero ao Renegado de Autocast - Abertura do Ragnarok LATAM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/wW18RX44qdU/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/XnXvD-wRUyc/sddefault_live.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-05-26T15:55:45Z</t>
+          <t>2025-05-28T12:52:35Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=wW18RX44qdU</t>
+          <t>https://www.youtube.com/watch?v=XnXvD-wRUyc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>@seduction5877</t>
+          <t>@IceZone</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[GUIA] Solos, Duetos e Corais</t>
+          <t>Guia Completo: Como Liberar Scaraba para Farmar e Upar! l Ragnarok LATAM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/AHWXLghzqFo/sddefault.jpg</t>
+          <t>https://i.ytimg.com/vi/1VS8J23RDNE/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-05-25T13:58:56Z</t>
+          <t>2025-05-27T21:15:06Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=AHWXLghzqFo</t>
+          <t>https://www.youtube.com/watch?v=1VS8J23RDNE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>@RagnaPlay.Oficial</t>
+          <t>@LokaltGames</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ragnarok Latam - A Melhor rota de UP do 99 ao 175 - Evento monstro em dobro (parte 2)</t>
+          <t>🟢LATAM RAGNAROK ONLINE 🟢 SERVIDOR NOVO, VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/U8gmMoZDmu0/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/RtREH4MMGXw/maxresdefault_live.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-05-25T19:14:51Z</t>
+          <t>2025-05-28T12:13:09Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=U8gmMoZDmu0</t>
+          <t>https://www.youtube.com/watch?v=RtREH4MMGXw</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>@RagnaPlay.Oficial</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Live Ragnarok Latam - Lançamento. Bora resenhar e rushar o 175!  #ragnarok</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/WI4CgSI4drg/maxresdefault_live.jpg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-05-28T11:29:39Z</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WI4CgSI4drg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Ragnarok Online LATAM</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Atenção: o recado mais importante do Ragnarok Online LATAM!</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/Z_s-TmJr9eQ/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025-05-26T22:28:06Z</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Z_s-TmJr9eQ</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Todos os Eventos de Lançamento do Ragnarok Online LATAM!</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/SX1rDccYBUw/maxresdefault.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-05-28T13:44:03Z</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SX1rDccYBUw</t>
         </is>
       </c>
     </row>

--- a/videos_recentes.xlsx
+++ b/videos_recentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[latam-ro] ⚔️ LANÇAMENTO do Servidor ⚔️ ~ Criando o Monge (Parceiro Oficial Ragnarok LATAM)</t>
+          <t>[latam-ro]  Dia 02  ⚔️ Virei SHURA⚔️ Upando lvl 100+  (Parceiro Oficial Ragnarok LATAM)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/mGRc8trka6Q/maxresdefault_live.jpg</t>
+          <t>https://i.ytimg.com/vi/3oOn6hJauo0/maxresdefault_live.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-05-28T12:37:26Z</t>
+          <t>2025-05-29T20:24:53Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=mGRc8trka6Q</t>
+          <t>https://www.youtube.com/watch?v=3oOn6hJauo0</t>
         </is>
       </c>
     </row>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Up dos Templários e Paladinos no LATAM</t>
+          <t>#53 [+18] [LATAM-Freya][Ragnarok Online] Salve! - !comandos ( !exitlag ) É HOJE LATAM!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/gv45z4-P_B4/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/Y1NQDtZ_Xi0/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-05-27T09:20:55Z</t>
+          <t>2025-05-29T05:18:52Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gv45z4-P_B4</t>
+          <t>https://www.youtube.com/watch?v=Y1NQDtZ_Xi0</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Melhor build pra solar o jogo de RANGER</t>
+          <t>E eu achando que nao poderia piorar :D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/mGUAJXV8lJ4/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/4nLWzXCz5TQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-05-27T14:57:35Z</t>
+          <t>2025-05-29T11:23:40Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=mGUAJXV8lJ4</t>
+          <t>https://www.youtube.com/watch?v=4nLWzXCz5TQ</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Como jogar de GX: HABILIDADES Ragnarok LATAM</t>
+          <t>Guia de Sicário: HABILIDADES Ragnarok LATAM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,17 +608,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/o2aEw-PxlUQ/maxresdefault_live.jpg</t>
+          <t>https://i.ytimg.com/vi/ZtBClGmd-Sc/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-05-28T13:12:06Z</t>
+          <t>2025-05-29T19:21:18Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=o2aEw-PxlUQ</t>
+          <t>https://www.youtube.com/watch?v=ZtBClGmd-Sc</t>
         </is>
       </c>
     </row>
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam: O Que Fazer no Primeiro Dia?</t>
+          <t>Ragnarok Online Latam: Bora jogar! Tentando 3º classe em 1 dia!</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/c6RxcxNPEes/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/7l5b0R_Ts3U/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-05-27T19:09:47Z</t>
+          <t>2025-05-29T21:07:14Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=c6RxcxNPEes</t>
+          <t>https://www.youtube.com/watch?v=7l5b0R_Ts3U</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O melhor ESPADACHIM do bairro! RAGNAROK Latam PRIMEIRO DIA</t>
+          <t>CAVALEIRO de BRANDIR! quase99 RAGNAROK Latam PRIMEIRO DIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/TIfrlXkJyzg/maxresdefault_live.jpg</t>
+          <t>https://i.ytimg.com/vi/TIfrlXkJyzg/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-05-28T12:42:25Z</t>
+          <t>2025-05-29T02:09:45Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,135 +679,162 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>@CerosPhantom</t>
+          <t>@IceZone</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[PARCEIRO OFICIAL] Do Zero ao Renegado de Autocast - Abertura do Ragnarok LATAM</t>
+          <t>Guia Completo: Como Liberar Scaraba para Farmar e Upar! l Ragnarok LATAM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/XnXvD-wRUyc/sddefault_live.jpg</t>
+          <t>https://i.ytimg.com/vi/1VS8J23RDNE/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-05-28T12:52:35Z</t>
+          <t>2025-05-27T21:15:06Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=XnXvD-wRUyc</t>
+          <t>https://www.youtube.com/watch?v=1VS8J23RDNE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>@IceZone</t>
+          <t>@LokaltGames</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Guia Completo: Como Liberar Scaraba para Farmar e Upar! l Ragnarok LATAM</t>
+          <t>🟢LATAM RAGNAROK ONLINE 🟢 SERVIDOR NOVO, VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/1VS8J23RDNE/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/WO-glSmcQhU/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-05-27T21:15:06Z</t>
+          <t>2025-05-29T17:21:49Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=1VS8J23RDNE</t>
+          <t>https://www.youtube.com/watch?v=WO-glSmcQhU</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>@LokaltGames</t>
+          <t>@Millifiore</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>🟢LATAM RAGNAROK ONLINE 🟢 SERVIDOR NOVO, VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
+          <t>Como foi o lançamento do Ragnarok online Latam! Primeiro dia do ROLA e minhas primeiras impressões.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/RtREH4MMGXw/maxresdefault_live.jpg</t>
+          <t>https://i.ytimg.com/vi/ceROVfG9ylw/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-05-28T12:13:09Z</t>
+          <t>2025-05-29T14:41:39Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RtREH4MMGXw</t>
+          <t>https://www.youtube.com/watch?v=ceROVfG9ylw</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>@RagnaPlay.Oficial</t>
+          <t>@GavetaDoTk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Live Ragnarok Latam - Lançamento. Bora resenhar e rushar o 175!  #ragnarok</t>
+          <t>É Pelo Rodex!! Ragnarok Latam</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/WI4CgSI4drg/maxresdefault_live.jpg</t>
+          <t>https://i.ytimg.com/vi/uitXFZy9bi4/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-05-28T11:29:39Z</t>
+          <t>2025-05-29T13:00:06Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WI4CgSI4drg</t>
+          <t>https://www.youtube.com/watch?v=uitXFZy9bi4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>@RagnaPlay.Oficial</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Live Ragnarok Latam - Lançamento. Bora resenhar e rushar o 175!  #ragnarok</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/q_NOHN77_Fs/maxresdefault_live.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-05-29T10:43:20Z</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=q_NOHN77_Fs</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Ragnarok Online LATAM</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Todos os Eventos de Lançamento do Ragnarok Online LATAM!</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/SX1rDccYBUw/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-05-28T13:44:03Z</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=SX1rDccYBUw</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Is It Worth Using the Izlude Valkyrie for Class Change?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/wPwLgkwJwRM/maxresdefault.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-05-29T21:01:05Z</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wPwLgkwJwRM</t>
         </is>
       </c>
     </row>

--- a/videos_recentes.xlsx
+++ b/videos_recentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[latam-ro]  Dia 02  ⚔️ Virei SHURA⚔️ Upando lvl 100+  (Parceiro Oficial Ragnarok LATAM)</t>
+          <t>[latam-ro]  Dia 02  ⚔️ Up lvl 110+⚔️ Shura !!  (Parceiro Oficial Ragnarok LATAM)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/3oOn6hJauo0/maxresdefault_live.jpg</t>
+          <t>https://i.ytimg.com/vi/3oOn6hJauo0/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-05-29T20:24:53Z</t>
+          <t>2025-05-30T01:56:20Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,344 +495,290 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#53 [+18] [LATAM-Freya][Ragnarok Online] Salve! - !comandos ( !exitlag ) É HOJE LATAM!</t>
+          <t>#54 [+18] [LATAM-Freya][Ragnarok Online] Salve! - @Ragnarokonlineoficial #SUPREMA #ExitLag (DIA 2)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Y1NQDtZ_Xi0/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/brZ7Ns266xE/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-05-29T05:18:52Z</t>
+          <t>2025-05-30T03:44:25Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Y1NQDtZ_Xi0</t>
+          <t>https://www.youtube.com/watch?v=brZ7Ns266xE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>@Lyelz</t>
+          <t>@JeffodaGaita</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Por que você joga Ragnarok Online?</t>
+          <t>SEMPRE pode piorar :D DADOS VAZADOS :DD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/nUwFHsgqVuc/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/idYzAkykD9c/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-05-27T16:42:03Z</t>
+          <t>2025-05-30T13:42:08Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=nUwFHsgqVuc</t>
+          <t>https://www.youtube.com/watch?v=idYzAkykD9c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>@JeffodaGaita</t>
+          <t>@KDashRagnarok</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>E eu achando que nao poderia piorar :D</t>
+          <t>Guia de Sicário: HABILIDADES Ragnarok LATAM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/4nLWzXCz5TQ/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/ht0U6RZAJuA/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-05-29T11:23:40Z</t>
+          <t>2025-05-28T13:13:00Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4nLWzXCz5TQ</t>
+          <t>https://www.youtube.com/watch?v=ht0U6RZAJuA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>@KDashRagnarok</t>
+          <t>@JogaJuntoRagnarok</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Guia de Sicário: HABILIDADES Ragnarok LATAM</t>
+          <t>É HOJE! LANÇAMENTO DO RAGNAROK LATAM! VAMOS JUNTOS !LIVEPIX</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/ht0U6RZAJuA/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/k5FHHa8CG54/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-05-28T13:13:00Z</t>
+          <t>2025-05-30T12:37:13Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ht0U6RZAJuA</t>
+          <t>https://www.youtube.com/watch?v=k5FHHa8CG54</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>@JogaJuntoRagnarok</t>
+          <t>@KSensei</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>É HOJE! LANÇAMENTO DO RAGNAROK LATAM! VAMOS JUNTOS !LIVEPIX</t>
+          <t>Ragnarok Online Latam: Bora jogar! Tentando 3º classe em 1 dia!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/ZtBClGmd-Sc/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/7l5b0R_Ts3U/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-05-29T19:21:18Z</t>
+          <t>2025-05-29T21:07:14Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ZtBClGmd-Sc</t>
+          <t>https://www.youtube.com/watch?v=7l5b0R_Ts3U</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>@KSensei</t>
+          <t>@tigrinMMO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam: Bora jogar! Tentando 3º classe em 1 dia!</t>
+          <t>Deixei meu CAVALEIRO FULL!  RAGNAROK Latam SEGUNDO DIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/7l5b0R_Ts3U/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/QfrbDOQNC8g/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-05-29T21:07:14Z</t>
+          <t>2025-05-30T06:28:34Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7l5b0R_Ts3U</t>
+          <t>https://www.youtube.com/watch?v=QfrbDOQNC8g</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>@tigrinMMO</t>
+          <t>@IceZone</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CAVALEIRO de BRANDIR! quase99 RAGNAROK Latam PRIMEIRO DIA</t>
+          <t>Moedas de mora Free  &amp; Fácil - Todas as Missões l Ragnarok Online Latam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/TIfrlXkJyzg/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/UP-opVF0gfg/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-05-29T02:09:45Z</t>
+          <t>2025-05-30T12:13:49Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TIfrlXkJyzg</t>
+          <t>https://www.youtube.com/watch?v=UP-opVF0gfg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>@IceZone</t>
+          <t>@LokaltGames</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Guia Completo: Como Liberar Scaraba para Farmar e Upar! l Ragnarok LATAM</t>
+          <t>🟢LATAM RAGNAROK ONLINE 🟢 SERVIDOR NOVO, VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/1VS8J23RDNE/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/0OXFsBgFIaA/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-05-27T21:15:06Z</t>
+          <t>2025-05-30T01:19:06Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=1VS8J23RDNE</t>
+          <t>https://www.youtube.com/watch?v=0OXFsBgFIaA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>@LokaltGames</t>
+          <t>@Millifiore</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>🟢LATAM RAGNAROK ONLINE 🟢 SERVIDOR NOVO, VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
+          <t>Como foi o lançamento do Ragnarok online Latam! Primeiro dia do ROLA e minhas primeiras impressões.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/WO-glSmcQhU/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/ceROVfG9ylw/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-05-29T17:21:49Z</t>
+          <t>2025-05-29T14:41:39Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WO-glSmcQhU</t>
+          <t>https://www.youtube.com/watch?v=ceROVfG9ylw</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>@Millifiore</t>
+          <t>@RagnaPlay.Oficial</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Como foi o lançamento do Ragnarok online Latam! Primeiro dia do ROLA e minhas primeiras impressões.</t>
+          <t>Ragnarok Latam 3º dia! - FDS diretão, com !sorteio DOIDÃO hoje as 20:00! #ragnarok</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/ceROVfG9ylw/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/iyihpwnwRtg/maxresdefault_live.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-05-29T14:41:39Z</t>
+          <t>2025-05-30T10:46:35Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ceROVfG9ylw</t>
+          <t>https://www.youtube.com/watch?v=iyihpwnwRtg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>@GavetaDoTk</t>
+          <t>Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>É Pelo Rodex!! Ragnarok Latam</t>
+          <t>Is It Worth Using the Izlude Valkyrie for Class Change?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/uitXFZy9bi4/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/wPwLgkwJwRM/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-05-29T13:00:06Z</t>
+          <t>2025-05-29T21:01:05Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=uitXFZy9bi4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>@RagnaPlay.Oficial</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Live Ragnarok Latam - Lançamento. Bora resenhar e rushar o 175!  #ragnarok</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/q_NOHN77_Fs/maxresdefault_live.jpg</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-05-29T10:43:20Z</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=q_NOHN77_Fs</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Ragnarok Online LATAM</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Is It Worth Using the Izlude Valkyrie for Class Change?</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/wPwLgkwJwRM/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025-05-29T21:01:05Z</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=wPwLgkwJwRM</t>
         </is>

--- a/videos_recentes.xlsx
+++ b/videos_recentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[latam-ro]  Dia 02  ⚔️ Up lvl 110+⚔️ Shura !!  (Parceiro Oficial Ragnarok LATAM)</t>
+          <t>Dia 05 ⚔️ Shura lvl 155+⚔️ Up em Bio4 e Instancias (Parceiro Oficial Ragnarok LATAM)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/3oOn6hJauo0/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/j8ep8MIC-NI/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-05-30T01:56:20Z</t>
+          <t>2025-06-02T00:35:21Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=3oOn6hJauo0</t>
+          <t>https://www.youtube.com/watch?v=j8ep8MIC-NI</t>
         </is>
       </c>
     </row>
@@ -495,292 +495,238 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#54 [+18] [LATAM-Freya][Ragnarok Online] Salve! - @Ragnarokonlineoficial #SUPREMA #ExitLag (DIA 2)</t>
+          <t>#56 [+18] [LATAM-Freya][Ragnarok Online] Salve! - @Ragnarokonlineoficial #SUPREMA #ExitLag (DIA 4)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/brZ7Ns266xE/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/aUBVLn-oW8c/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-05-30T03:44:25Z</t>
+          <t>2025-06-01T11:13:51Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=brZ7Ns266xE</t>
+          <t>https://www.youtube.com/watch?v=aUBVLn-oW8c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>@JeffodaGaita</t>
+          <t>@deathnokage</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEMPRE pode piorar :D DADOS VAZADOS :DD</t>
+          <t>Upar HW é difícil...? Ragnarok Latam (ROLa) - Freya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/idYzAkykD9c/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/ZzeAcIKYAaI/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-05-30T13:42:08Z</t>
+          <t>2025-05-31T09:04:56Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=idYzAkykD9c</t>
+          <t>https://www.youtube.com/watch?v=ZzeAcIKYAaI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>@KDashRagnarok</t>
+          <t>@JogaJuntoRagnarok</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Guia de Sicário: HABILIDADES Ragnarok LATAM</t>
+          <t>GUIA COMPLETO RAGNAROK LATAM PARTE 1 - MISSÕES DE APRENDIZ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/ht0U6RZAJuA/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/e4hnSUEkANg/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-05-28T13:13:00Z</t>
+          <t>2025-06-02T08:16:20Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ht0U6RZAJuA</t>
+          <t>https://www.youtube.com/watch?v=e4hnSUEkANg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>@JogaJuntoRagnarok</t>
+          <t>@KSensei</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>É HOJE! LANÇAMENTO DO RAGNAROK LATAM! VAMOS JUNTOS !LIVEPIX</t>
+          <t>Ragnarok Online Latam: Guia de como começar bem e com EQUIPAMENTOS!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/k5FHHa8CG54/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/rkjQmjbTD7k/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-05-30T12:37:13Z</t>
+          <t>2025-06-01T16:03:38Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=k5FHHa8CG54</t>
+          <t>https://www.youtube.com/watch?v=rkjQmjbTD7k</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>@KSensei</t>
+          <t>@tigrinMMO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam: Bora jogar! Tentando 3º classe em 1 dia!</t>
+          <t>BUG de DUPLICAÇÃO no RAGNAROK LATAM! =(</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/7l5b0R_Ts3U/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/TcLQfkTdY6M/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-05-29T21:07:14Z</t>
+          <t>2025-06-02T09:00:40Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7l5b0R_Ts3U</t>
+          <t>https://www.youtube.com/watch?v=TcLQfkTdY6M</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>@tigrinMMO</t>
+          <t>Cabana do Sentinela</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Deixei meu CAVALEIRO FULL!  RAGNAROK Latam SEGUNDO DIA</t>
+          <t>Guia para Renascimento/Reborn Gratuitamente - Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/QfrbDOQNC8g/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/1GxJ8oXNExI/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-05-30T06:28:34Z</t>
+          <t>2025-06-01T13:06:23Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=QfrbDOQNC8g</t>
+          <t>https://www.youtube.com/watch?v=1GxJ8oXNExI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>@IceZone</t>
+          <t>@LokaltGames</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Moedas de mora Free  &amp; Fácil - Todas as Missões l Ragnarok Online Latam</t>
+          <t>🟢RG 140+ LATAM RAGNAROK ONLINE🟢 SERVIDOR  FREYA , VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/UP-opVF0gfg/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/hK2sLLa7M0Q/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-05-30T12:13:49Z</t>
+          <t>2025-06-02T11:06:47Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UP-opVF0gfg</t>
+          <t>https://www.youtube.com/watch?v=hK2sLLa7M0Q</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>@LokaltGames</t>
+          <t>@Millifiore</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>🟢LATAM RAGNAROK ONLINE 🟢 SERVIDOR NOVO, VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
+          <t>Dupe no Latam! Pronunciamento oficial da Gravity sobre o ocorrido.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/0OXFsBgFIaA/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/947s_VQz9yU/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-05-30T01:19:06Z</t>
+          <t>2025-06-01T23:28:44Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=0OXFsBgFIaA</t>
+          <t>https://www.youtube.com/watch?v=947s_VQz9yU</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>@Millifiore</t>
+          <t>@RagnaPlay.Oficial</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Como foi o lançamento do Ragnarok online Latam! Primeiro dia do ROLA e minhas primeiras impressões.</t>
+          <t>Ragnarok Latam: NOVO DUPE e contas banidas/bloqueadas. #ragnarok #ragnaroklatam</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/ceROVfG9ylw/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/Bv8ZLWz2Dgg/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-05-29T14:41:39Z</t>
+          <t>2025-06-02T13:06:14Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ceROVfG9ylw</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>@RagnaPlay.Oficial</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ragnarok Latam 3º dia! - FDS diretão, com !sorteio DOIDÃO hoje as 20:00! #ragnarok</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/iyihpwnwRtg/maxresdefault_live.jpg</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-05-30T10:46:35Z</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=iyihpwnwRtg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ragnarok Online LATAM</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Is It Worth Using the Izlude Valkyrie for Class Change?</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/wPwLgkwJwRM/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025-05-29T21:01:05Z</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=wPwLgkwJwRM</t>
+          <t>https://www.youtube.com/watch?v=Bv8ZLWz2Dgg</t>
         </is>
       </c>
     </row>

--- a/videos_recentes.xlsx
+++ b/videos_recentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dia 05 ⚔️ Shura lvl 155+⚔️ Up em Bio4 e Instancias (Parceiro Oficial Ragnarok LATAM)</t>
+          <t>GUIA: Torneio de Magia! Nova Instância ~ Shura lvl 160 solo VS Fenris Fenrir - Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/j8ep8MIC-NI/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/E48aXxM7Lw0/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-06-02T00:35:21Z</t>
+          <t>2025-06-06T00:12:44Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j8ep8MIC-NI</t>
+          <t>https://www.youtube.com/watch?v=E48aXxM7Lw0</t>
         </is>
       </c>
     </row>
@@ -495,157 +495,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#56 [+18] [LATAM-Freya][Ragnarok Online] Salve! - @Ragnarokonlineoficial #SUPREMA #ExitLag (DIA 4)</t>
+          <t>#58 [+18] [LATAM-Freya][Ragnarok Online] RAGSTAR - @Ragnarokonlineoficial #SUPREMA #ExitLag</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/aUBVLn-oW8c/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/RhrB2XbJKxM/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-06-01T11:13:51Z</t>
+          <t>2025-06-05T05:20:21Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aUBVLn-oW8c</t>
+          <t>https://www.youtube.com/watch?v=RhrB2XbJKxM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>@deathnokage</t>
+          <t>@JogaJuntoRagnarok</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Upar HW é difícil...? Ragnarok Latam (ROLa) - Freya</t>
+          <t>LIVE no RAGNAROK LATAM! Vou estar em outros jogos se não conseguir !LIVEPIX</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/ZzeAcIKYAaI/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/0zAZrkA3-UY/maxresdefault_live.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-05-31T09:04:56Z</t>
+          <t>2025-06-06T02:25:43Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ZzeAcIKYAaI</t>
+          <t>https://www.youtube.com/watch?v=0zAZrkA3-UY</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>@JogaJuntoRagnarok</t>
+          <t>@KSensei</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GUIA COMPLETO RAGNAROK LATAM PARTE 1 - MISSÕES DE APRENDIZ</t>
+          <t>Ragnarok Online Latam: Como está meu RK? Guia e Build Completa Vento Cortante!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/e4hnSUEkANg/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/HcSoJEk4Kzs/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-06-02T08:16:20Z</t>
+          <t>2025-06-04T23:00:44Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=e4hnSUEkANg</t>
+          <t>https://www.youtube.com/watch?v=HcSoJEk4Kzs</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>@KSensei</t>
+          <t>@tigrinMMO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam: Guia de como começar bem e com EQUIPAMENTOS!</t>
+          <t>RK 145 FARMANDO CARTAS! RAGNAROK Latam 9º DIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/rkjQmjbTD7k/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/O9tp4NCjASY/maxresdefault_live.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-06-01T16:03:38Z</t>
+          <t>2025-06-05T23:46:17Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=rkjQmjbTD7k</t>
+          <t>https://www.youtube.com/watch?v=O9tp4NCjASY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>@tigrinMMO</t>
+          <t>@CerosPhantom</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BUG de DUPLICAÇÃO no RAGNAROK LATAM! =(</t>
+          <t>Guia Geral de Arcano no Ragnarok LATAM (Ep. 14.2) feat. @KabeMais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/TcLQfkTdY6M/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/VH52J5qbmNs/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-06-02T09:00:40Z</t>
+          <t>2025-06-04T17:42:02Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TcLQfkTdY6M</t>
+          <t>https://www.youtube.com/watch?v=VH52J5qbmNs</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cabana do Sentinela</t>
+          <t>@IceZone</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Guia para Renascimento/Reborn Gratuitamente - Ragnarok Online LATAM</t>
+          <t>Como chegar rápido no Espaço Dimensional no Ragnarok Online #ragnarokonline #ragnaroklatam #rpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/1GxJ8oXNExI/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/_5qP_1SX748/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-06-01T13:06:23Z</t>
+          <t>2025-06-05T13:15:05Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=1GxJ8oXNExI</t>
+          <t>https://www.youtube.com/watch?v=_5qP_1SX748</t>
         </is>
       </c>
     </row>
@@ -657,49 +657,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>🟢RG 140+ LATAM RAGNAROK ONLINE🟢 SERVIDOR  FREYA , VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
+          <t>🟢RG 150+ LATAM RAGNAROK ONLINE🟢 SERVIDOR  FREYA , VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/hK2sLLa7M0Q/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/bGAR4hAlm3o/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-06-02T11:06:47Z</t>
+          <t>2025-06-05T02:31:39Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=hK2sLLa7M0Q</t>
+          <t>https://www.youtube.com/watch?v=bGAR4hAlm3o</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>@Millifiore</t>
+          <t>@GavetaDoTk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dupe no Latam! Pronunciamento oficial da Gravity sobre o ocorrido.</t>
+          <t>Rumo ao Lord! Ragnarok Latam</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/947s_VQz9yU/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/W6mWqdtq2hk/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-06-01T23:28:44Z</t>
+          <t>2025-06-05T22:30:29Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=947s_VQz9yU</t>
+          <t>https://www.youtube.com/watch?v=W6mWqdtq2hk</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,49 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ragnarok Latam: NOVO DUPE e contas banidas/bloqueadas. #ragnarok #ragnaroklatam</t>
+          <t>Ragnarok Latam - Atualização de JUNHO CHEGOU! - Com SORTEIO! ;) #ragnaroklatam #ragnarok</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/Bv8ZLWz2Dgg/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/NYqs8vZHvYI/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-06-02T13:06:14Z</t>
+          <t>2025-06-05T21:20:07Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Bv8ZLWz2Dgg</t>
+          <t>https://www.youtube.com/watch?v=NYqs8vZHvYI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ragnarok Online LATAM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>New exclusive costumes now available in the shop!</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/kyl_YyzXXtU/maxresdefault.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-06-06T00:00:52Z</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=kyl_YyzXXtU</t>
         </is>
       </c>
     </row>

--- a/videos_recentes.xlsx
+++ b/videos_recentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,297 +463,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Luca Baruch</t>
+          <t>@LucaBurach</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GUIA: Torneio de Magia! Nova Instância ~ Shura lvl 160 solo VS Fenris Fenrir - Ragnarok Online LATAM</t>
+          <t>Guia: CUSTOMIZAÇÃO ! Roupas especiais, Cores de Roupa e Cabelos de Cash - Ragnarok Online LATAM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/E48aXxM7Lw0/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/tAMBPGes2o8/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-06-06T00:12:44Z</t>
+          <t>2025-06-15T13:01:26Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=E48aXxM7Lw0</t>
+          <t>https://www.youtube.com/watch?v=tAMBPGes2o8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>@EstudoArcano</t>
+          <t>@KDashRagnarok</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#58 [+18] [LATAM-Freya][Ragnarok Online] RAGSTAR - @Ragnarokonlineoficial #SUPREMA #ExitLag</t>
+          <t>O Apocalipse dos Bots #ragnarok LATAM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/RhrB2XbJKxM/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/ScBo-M5r6DU/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-06-05T05:20:21Z</t>
+          <t>2025-06-15T17:00:59Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RhrB2XbJKxM</t>
+          <t>https://www.youtube.com/watch?v=ScBo-M5r6DU</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>@JogaJuntoRagnarok</t>
+          <t>@KSensei</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LIVE no RAGNAROK LATAM! Vou estar em outros jogos se não conseguir !LIVEPIX</t>
+          <t>Ragnarok Online Latam: Tier List das Melhores classes PVM! Pegue 99 Rápido!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/0zAZrkA3-UY/maxresdefault_live.jpg</t>
+          <t>https://i.ytimg.com/vi/tEqeym8V3rw/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-06-06T02:25:43Z</t>
+          <t>2025-06-15T15:46:04Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=0zAZrkA3-UY</t>
+          <t>https://www.youtube.com/watch?v=tEqeym8V3rw</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>@KSensei</t>
+          <t>@tigrinMMO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ragnarok Online Latam: Como está meu RK? Guia e Build Completa Vento Cortante!</t>
+          <t>VAZOU TUTORIAL de BOT no LATAM! (SÓ BOT CONSEGUE ENTRAR NO JOGO)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/HcSoJEk4Kzs/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/UGDD23ld1Iw/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-06-04T23:00:44Z</t>
+          <t>2025-06-15T20:00:28Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=HcSoJEk4Kzs</t>
+          <t>https://www.youtube.com/watch?v=UGDD23ld1Iw</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>@tigrinMMO</t>
+          <t>@LokaltGames</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RK 145 FARMANDO CARTAS! RAGNAROK Latam 9º DIA</t>
+          <t>🟢RG 160+ LATAM RAGNAROK ONLINE🟢 SERVIDOR  FREYA , VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/O9tp4NCjASY/maxresdefault_live.jpg</t>
+          <t>https://i.ytimg.com/vi/A4kn9NWPjB4/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-06-05T23:46:17Z</t>
+          <t>2025-06-16T01:20:47Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=O9tp4NCjASY</t>
+          <t>https://www.youtube.com/watch?v=A4kn9NWPjB4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>@CerosPhantom</t>
+          <t>@Millifiore</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Guia Geral de Arcano no Ragnarok LATAM (Ep. 14.2) feat. @KabeMais</t>
+          <t>Desconectado do servidor? Formas de resolver o erro! Infestação de bots no jogo e desabafo.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/VH52J5qbmNs/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/ym80fyk_7fQ/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-06-04T17:42:02Z</t>
+          <t>2025-06-15T14:53:52Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VH52J5qbmNs</t>
+          <t>https://www.youtube.com/watch?v=ym80fyk_7fQ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>@IceZone</t>
+          <t>@GavetaDoTk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Como chegar rápido no Espaço Dimensional no Ragnarok Online #ragnarokonline #ragnaroklatam #rpg</t>
+          <t>Jornada Continua! Ragnarok Latam</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/_5qP_1SX748/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/OqZR62n-Zao/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-06-05T13:15:05Z</t>
+          <t>2025-06-15T12:00:06Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_5qP_1SX748</t>
+          <t>https://www.youtube.com/watch?v=OqZR62n-Zao</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>@LokaltGames</t>
+          <t>@RagnaPlay.Oficial</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>🟢RG 150+ LATAM RAGNAROK ONLINE🟢 SERVIDOR  FREYA , VIDA NOVA! Ragnarok LATAM DO COMEÇO AO TOPO 🟢</t>
+          <t>Ragnarok Latam -  Bots Banidos,FDS 2x EXP, up Shura do 0!!  - Goodvibes! ;) #ragnaroklatam #ragnarok</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ytimg.com/vi/bGAR4hAlm3o/maxresdefault.jpg</t>
+          <t>https://i.ytimg.com/vi/uL85H2QV34Q/maxresdefault.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-06-05T02:31:39Z</t>
+          <t>2025-06-15T03:03:59Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=bGAR4hAlm3o</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>@GavetaDoTk</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Rumo ao Lord! Ragnarok Latam</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/W6mWqdtq2hk/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-06-05T22:30:29Z</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=W6mWqdtq2hk</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>@RagnaPlay.Oficial</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ragnarok Latam - Atualização de JUNHO CHEGOU! - Com SORTEIO! ;) #ragnaroklatam #ragnarok</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/NYqs8vZHvYI/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-06-05T21:20:07Z</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=NYqs8vZHvYI</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ragnarok Online LATAM</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>New exclusive costumes now available in the shop!</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/kyl_YyzXXtU/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-06-06T00:00:52Z</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=kyl_YyzXXtU</t>
+          <t>https://www.youtube.com/watch?v=uL85H2QV34Q</t>
         </is>
       </c>
     </row>
